--- a/src/test/resources/resource/accountdetails.xlsx
+++ b/src/test/resources/resource/accountdetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>456gmail.com</t>
   </si>
   <si>
-    <t>yandra@gmail.com</t>
+    <t>sindhujavvreddy@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,13 +411,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -498,7 +498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,7 +510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
